--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1153,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1246,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1413,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1506,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1632,10 +1644,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1679,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1725,28 +1737,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1834,10 +1846,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1881,28 +1893,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1927,28 +1939,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2123,10 +2135,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2170,28 +2182,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2216,28 +2228,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2354,10 +2366,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2401,28 +2413,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2447,28 +2459,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2556,10 +2568,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2603,28 +2615,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2649,28 +2661,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2845,10 +2857,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2892,28 +2904,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2938,28 +2950,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3105,10 +3117,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3152,28 +3164,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3198,28 +3210,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3365,10 +3377,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3412,28 +3424,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3458,28 +3470,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3567,10 +3579,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3614,28 +3626,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3660,28 +3672,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3856,10 +3868,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3903,28 +3915,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3949,28 +3961,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4029,10 +4041,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4076,28 +4088,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4122,28 +4134,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4260,10 +4272,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4307,28 +4319,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4353,28 +4365,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4491,10 +4503,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4538,28 +4550,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4584,28 +4596,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4693,10 +4705,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4740,28 +4752,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4786,28 +4798,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4924,10 +4936,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4971,28 +4983,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5017,28 +5029,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5097,10 +5109,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5144,28 +5156,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5190,28 +5202,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5299,10 +5311,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5346,28 +5358,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5392,28 +5404,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5472,10 +5484,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5519,28 +5531,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5565,28 +5577,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5674,10 +5686,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5721,28 +5733,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5767,28 +5779,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5847,10 +5859,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5894,28 +5906,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5940,28 +5952,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6049,10 +6061,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6096,28 +6108,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6142,28 +6154,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6251,10 +6263,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6298,28 +6310,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6344,28 +6356,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6424,10 +6436,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6471,28 +6483,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6517,28 +6529,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6597,10 +6609,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6644,28 +6656,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6690,28 +6702,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6799,10 +6811,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6846,28 +6858,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6892,28 +6904,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6972,10 +6984,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7019,28 +7031,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7065,28 +7077,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7145,10 +7157,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7192,28 +7204,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7238,28 +7250,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7347,10 +7359,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7394,28 +7406,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7440,28 +7452,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7520,10 +7532,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7567,28 +7579,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7613,28 +7625,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7693,10 +7705,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7740,28 +7752,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7786,28 +7798,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7866,10 +7878,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7913,28 +7925,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7959,28 +7971,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8068,10 +8080,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8115,28 +8127,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8161,28 +8173,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8241,10 +8253,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8288,28 +8300,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8334,28 +8346,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8414,10 +8426,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="2" t="s">
+      <c r="J287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8461,28 +8473,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="A289" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="2">
+      <c r="C289" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8507,28 +8519,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="2">
+      <c r="C291" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="2">
+      <c r="D291" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="2">
+      <c r="I291" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8587,10 +8599,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8634,28 +8646,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8680,28 +8692,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8760,10 +8772,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="2" t="s">
+      <c r="J299" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8807,28 +8819,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="2">
+      <c r="A301" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="2">
+      <c r="C301" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8853,28 +8865,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="2">
+      <c r="C303" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="2">
+      <c r="D303" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="2">
+      <c r="I303" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8933,10 +8945,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="2" t="s">
+      <c r="J305" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8980,28 +8992,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="2">
+      <c r="A307" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="2">
+      <c r="C307" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9026,28 +9038,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="2">
+      <c r="C309" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="2">
+      <c r="D309" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="2">
+      <c r="I309" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9106,10 +9118,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9153,28 +9165,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9199,28 +9211,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9279,10 +9291,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9326,28 +9338,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9372,28 +9384,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9452,10 +9464,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9499,28 +9511,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9545,28 +9557,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9625,10 +9637,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9672,28 +9684,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9718,28 +9730,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9798,10 +9810,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9845,28 +9857,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9891,28 +9903,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9971,10 +9983,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10560" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -402,10 +450,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -449,28 +497,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="4">
+      <c r="A11" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="4">
+      <c r="C11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -495,28 +543,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="4">
+      <c r="B13" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="4">
+      <c r="I13" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -662,10 +710,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -709,28 +757,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="4">
+      <c r="A20" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="4">
+      <c r="C20" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -755,28 +803,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="4">
+      <c r="B22" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="4">
+      <c r="D22" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="4">
+      <c r="E22" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="4">
+      <c r="F22" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="4">
+      <c r="G22" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="4">
+      <c r="H22" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="4">
+      <c r="I22" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -893,10 +941,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="J26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -940,28 +988,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="4">
+      <c r="A28" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="4">
+      <c r="C28" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -986,28 +1034,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="4">
+      <c r="C30" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="4">
+      <c r="D30" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="4">
+      <c r="G30" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="4">
+      <c r="H30" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="4">
+      <c r="I30" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1153,10 +1201,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="4" t="s">
+      <c r="J35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1200,28 +1248,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="4">
+      <c r="A37" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="4">
+      <c r="C37" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="4">
+      <c r="G37" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="4">
+      <c r="H37" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1246,28 +1294,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="4">
+      <c r="B39" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="4">
+      <c r="C39" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="4">
+      <c r="D39" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="4">
+      <c r="E39" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="4">
+      <c r="F39" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="4">
+      <c r="G39" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="4">
+      <c r="H39" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="4">
+      <c r="I39" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1413,10 +1461,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="4" t="s">
+      <c r="J44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1460,28 +1508,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="4">
+      <c r="A46" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="4">
+      <c r="C46" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1506,28 +1554,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="4">
+      <c r="C48" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="4">
+      <c r="D48" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="4">
+      <c r="G48" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="4">
+      <c r="H48" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="4">
+      <c r="I48" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1644,10 +1692,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="4" t="s">
+      <c r="J52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1691,28 +1739,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="4">
+      <c r="A54" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="4">
+      <c r="C54" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="4">
+      <c r="G54" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="4">
+      <c r="H54" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1737,28 +1785,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="D56" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="4">
+      <c r="I56" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1846,10 +1894,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="4" t="s">
+      <c r="J59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1893,28 +1941,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="4">
+      <c r="A61" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="4">
+      <c r="C61" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1939,28 +1987,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="4">
+      <c r="I63" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2135,10 +2183,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="4" t="s">
+      <c r="J69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2182,28 +2230,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="4">
+      <c r="A71" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="4">
+      <c r="C71" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2228,28 +2276,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="4">
+      <c r="D73" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="4">
+      <c r="I73" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2366,10 +2414,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="4" t="s">
+      <c r="J77" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2413,28 +2461,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="4">
+      <c r="A79" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="4">
+      <c r="C79" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="4">
+      <c r="G79" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="4">
+      <c r="H79" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2459,28 +2507,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="4">
+      <c r="C81" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="4">
+      <c r="D81" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="4">
+      <c r="G81" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="4">
+      <c r="H81" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="4">
+      <c r="I81" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2568,10 +2616,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="4" t="s">
+      <c r="J84" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2615,28 +2663,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="4">
+      <c r="A86" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="4">
+      <c r="C86" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2661,28 +2709,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="4">
+      <c r="C88" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="4">
+      <c r="D88" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="4">
+      <c r="I88" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2857,10 +2905,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="4" t="s">
+      <c r="J94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2904,28 +2952,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="4">
+      <c r="A96" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="4">
+      <c r="C96" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2950,28 +2998,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="4">
+      <c r="I98" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3117,10 +3165,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="4" t="s">
+      <c r="J103" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3164,28 +3212,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="4">
+      <c r="A105" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="4">
+      <c r="B105" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="4">
+      <c r="C105" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="4">
+      <c r="E105" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="4">
+      <c r="F105" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="4">
+      <c r="G105" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="4">
+      <c r="H105" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3210,28 +3258,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="4">
+      <c r="C107" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="4">
+      <c r="D107" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="4">
+      <c r="I107" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3377,10 +3425,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="4" t="s">
+      <c r="J112" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3424,28 +3472,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="4">
+      <c r="A114" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="4">
+      <c r="B114" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="4">
+      <c r="C114" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="4">
+      <c r="E114" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="4">
+      <c r="F114" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="4">
+      <c r="G114" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="4">
+      <c r="H114" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3470,28 +3518,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="4">
+      <c r="C116" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="4">
+      <c r="D116" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="4">
+      <c r="I116" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3579,10 +3627,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="4" t="s">
+      <c r="J119" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3626,28 +3674,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="4">
+      <c r="A121" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="4">
+      <c r="C121" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3672,28 +3720,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="4">
+      <c r="C123" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="4">
+      <c r="D123" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="4">
+      <c r="G123" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="4">
+      <c r="H123" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="4">
+      <c r="I123" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3868,10 +3916,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="4" t="s">
+      <c r="J129" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3915,28 +3963,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="4">
+      <c r="A131" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="4">
+      <c r="C131" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="4">
+      <c r="E131" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="4">
+      <c r="F131" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="4">
+      <c r="G131" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="4">
+      <c r="H131" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3961,28 +4009,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="4">
+      <c r="B133" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="4">
+      <c r="C133" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="4">
+      <c r="D133" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="4">
+      <c r="E133" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="4">
+      <c r="F133" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="4">
+      <c r="G133" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="4">
+      <c r="H133" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="4">
+      <c r="I133" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4041,10 +4089,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="4" t="s">
+      <c r="J135" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4088,28 +4136,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="4">
+      <c r="A137" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="4">
+      <c r="B137" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="4">
+      <c r="C137" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="4">
+      <c r="E137" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="4">
+      <c r="F137" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="4">
+      <c r="G137" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="4">
+      <c r="H137" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4134,28 +4182,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="4">
+      <c r="B139" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="4">
+      <c r="C139" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="4">
+      <c r="D139" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="4">
+      <c r="E139" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="4">
+      <c r="F139" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="4">
+      <c r="G139" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="4">
+      <c r="H139" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="4">
+      <c r="I139" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4272,10 +4320,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="4" t="s">
+      <c r="J143" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4319,28 +4367,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="4">
+      <c r="A145" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="4">
+      <c r="B145" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="4">
+      <c r="C145" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="4">
+      <c r="E145" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="4">
+      <c r="F145" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="4">
+      <c r="G145" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="4">
+      <c r="H145" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4365,28 +4413,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="4">
+      <c r="B147" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="4">
+      <c r="C147" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="4">
+      <c r="D147" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="4">
+      <c r="E147" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="4">
+      <c r="F147" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="4">
+      <c r="G147" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="4">
+      <c r="H147" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="4">
+      <c r="I147" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4503,10 +4551,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="4" t="s">
+      <c r="J151" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4550,28 +4598,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="4">
+      <c r="A153" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="4">
+      <c r="B153" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="4">
+      <c r="C153" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="4">
+      <c r="E153" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="4">
+      <c r="F153" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="4">
+      <c r="G153" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="4">
+      <c r="H153" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4596,28 +4644,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="4">
+      <c r="C155" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="4">
+      <c r="D155" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="4">
+      <c r="I155" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4705,10 +4753,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="4" t="s">
+      <c r="J158" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4752,28 +4800,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="4">
+      <c r="A160" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="4">
+      <c r="C160" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4798,28 +4846,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="4">
+      <c r="C162" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="4">
+      <c r="D162" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="4">
+      <c r="I162" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4936,10 +4984,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="4" t="s">
+      <c r="J166" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4983,28 +5031,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="4">
+      <c r="A168" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="4">
+      <c r="C168" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5029,28 +5077,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="4">
+      <c r="I170" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5109,10 +5157,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="4" t="s">
+      <c r="J172" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5156,28 +5204,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="4">
+      <c r="A174" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="4">
+      <c r="C174" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5202,28 +5250,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="4">
+      <c r="C176" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="4">
+      <c r="D176" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="4">
+      <c r="I176" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5311,10 +5359,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="4" t="s">
+      <c r="J179" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5358,28 +5406,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="4">
+      <c r="A181" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="4">
+      <c r="B181" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="4">
+      <c r="C181" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="4">
+      <c r="E181" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="4">
+      <c r="F181" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="4">
+      <c r="G181" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="4">
+      <c r="H181" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5404,28 +5452,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="4">
+      <c r="C183" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="4">
+      <c r="D183" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="4">
+      <c r="I183" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5484,10 +5532,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="4" t="s">
+      <c r="J185" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5531,28 +5579,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="4">
+      <c r="A187" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="4">
+      <c r="B187" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="4">
+      <c r="C187" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="4">
+      <c r="E187" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="4">
+      <c r="F187" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="4">
+      <c r="G187" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="4">
+      <c r="H187" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5577,28 +5625,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="4">
+      <c r="B189" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="4">
+      <c r="C189" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="4">
+      <c r="D189" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="4">
+      <c r="E189" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="4">
+      <c r="F189" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="4">
+      <c r="G189" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="4">
+      <c r="H189" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="4">
+      <c r="I189" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5686,10 +5734,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="4" t="s">
+      <c r="J192" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5733,28 +5781,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="4">
+      <c r="A194" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="4">
+      <c r="B194" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="4">
+      <c r="C194" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="4">
+      <c r="E194" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="4">
+      <c r="F194" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="4">
+      <c r="G194" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="4">
+      <c r="H194" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5779,28 +5827,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="4">
+      <c r="B196" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="4">
+      <c r="C196" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="4">
+      <c r="D196" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="4">
+      <c r="E196" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="4">
+      <c r="F196" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="4">
+      <c r="G196" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="4">
+      <c r="H196" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="4">
+      <c r="I196" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5859,10 +5907,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="4" t="s">
+      <c r="J198" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5906,28 +5954,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="4">
+      <c r="A200" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="4">
+      <c r="B200" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="4">
+      <c r="C200" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="4">
+      <c r="E200" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="4">
+      <c r="F200" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="4">
+      <c r="G200" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="4">
+      <c r="H200" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5952,28 +6000,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="4">
+      <c r="B202" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="4">
+      <c r="C202" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="4">
+      <c r="D202" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="4">
+      <c r="E202" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="4">
+      <c r="F202" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="4">
+      <c r="G202" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="4">
+      <c r="H202" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="4">
+      <c r="I202" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6061,10 +6109,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="4" t="s">
+      <c r="J205" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6108,28 +6156,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="4">
+      <c r="A207" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="4">
+      <c r="C207" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="4">
+      <c r="G207" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="4">
+      <c r="H207" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6154,28 +6202,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="4">
+      <c r="C209" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="4">
+      <c r="D209" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="4">
+      <c r="E209" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="4">
+      <c r="F209" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="4">
+      <c r="G209" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="4">
+      <c r="H209" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="4">
+      <c r="I209" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6263,10 +6311,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="4" t="s">
+      <c r="J212" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6310,28 +6358,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="4">
+      <c r="A214" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="4">
+      <c r="C214" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="4">
+      <c r="G214" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="4">
+      <c r="H214" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6356,28 +6404,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="4">
+      <c r="B216" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="4">
+      <c r="C216" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="4">
+      <c r="D216" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="4">
+      <c r="E216" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="4">
+      <c r="F216" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="4">
+      <c r="G216" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="4">
+      <c r="H216" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="4">
+      <c r="I216" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6436,10 +6484,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="4" t="s">
+      <c r="J218" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6483,28 +6531,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="4">
+      <c r="A220" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="4">
+      <c r="B220" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="4">
+      <c r="C220" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="4">
+      <c r="E220" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="4">
+      <c r="F220" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="4">
+      <c r="G220" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="4">
+      <c r="H220" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6529,28 +6577,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="4">
+      <c r="B222" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="4">
+      <c r="C222" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="4">
+      <c r="D222" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="4">
+      <c r="E222" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="4">
+      <c r="F222" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="4">
+      <c r="G222" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="4">
+      <c r="H222" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="4">
+      <c r="I222" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6609,10 +6657,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="4" t="s">
+      <c r="J224" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6656,28 +6704,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="4">
+      <c r="A226" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="4">
+      <c r="B226" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="4">
+      <c r="C226" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="4">
+      <c r="E226" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="4">
+      <c r="F226" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="4">
+      <c r="G226" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="4">
+      <c r="H226" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6702,28 +6750,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="4">
+      <c r="B228" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="4">
+      <c r="C228" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="4">
+      <c r="D228" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="4">
+      <c r="E228" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="4">
+      <c r="F228" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="4">
+      <c r="G228" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="4">
+      <c r="H228" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="4">
+      <c r="I228" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6811,10 +6859,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="4" t="s">
+      <c r="J231" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6858,28 +6906,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="4">
+      <c r="A233" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="4">
+      <c r="C233" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="4">
+      <c r="E233" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="4">
+      <c r="F233" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="4">
+      <c r="G233" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="4">
+      <c r="H233" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6904,28 +6952,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="4">
+      <c r="C235" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="4">
+      <c r="D235" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="4">
+      <c r="E235" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="4">
+      <c r="F235" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="4">
+      <c r="G235" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="4">
+      <c r="H235" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="4">
+      <c r="I235" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6984,10 +7032,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="4" t="s">
+      <c r="J237" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7031,28 +7079,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="4">
+      <c r="A239" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="4">
+      <c r="B239" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="4">
+      <c r="C239" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="4">
+      <c r="E239" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="4">
+      <c r="F239" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="4">
+      <c r="G239" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="4">
+      <c r="H239" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7077,28 +7125,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="4">
+      <c r="B241" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="4">
+      <c r="C241" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="4">
+      <c r="D241" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="4">
+      <c r="E241" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="4">
+      <c r="F241" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="4">
+      <c r="G241" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="4">
+      <c r="H241" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="4">
+      <c r="I241" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7157,10 +7205,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="4" t="s">
+      <c r="J243" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7204,28 +7252,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="4">
+      <c r="A245" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="4">
+      <c r="B245" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="4">
+      <c r="C245" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="4">
+      <c r="E245" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="4">
+      <c r="F245" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="4">
+      <c r="G245" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="4">
+      <c r="H245" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7250,28 +7298,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="4">
+      <c r="B247" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="4">
+      <c r="C247" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="4">
+      <c r="D247" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="4">
+      <c r="E247" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="4">
+      <c r="F247" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="4">
+      <c r="G247" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="4">
+      <c r="H247" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="4">
+      <c r="I247" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7359,10 +7407,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="4" t="s">
+      <c r="J250" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7406,28 +7454,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="4">
+      <c r="A252" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="4">
+      <c r="B252" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="4">
+      <c r="C252" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="4">
+      <c r="E252" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="4">
+      <c r="F252" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="4">
+      <c r="G252" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="4">
+      <c r="H252" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7452,28 +7500,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="4">
+      <c r="B254" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="4">
+      <c r="C254" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="4">
+      <c r="D254" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="4">
+      <c r="E254" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="4">
+      <c r="F254" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="4">
+      <c r="G254" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="4">
+      <c r="H254" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="4">
+      <c r="I254" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7532,10 +7580,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="4" t="s">
+      <c r="J256" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7579,28 +7627,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="4">
+      <c r="A258" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="4">
+      <c r="C258" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="4">
+      <c r="E258" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="4">
+      <c r="F258" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="4">
+      <c r="G258" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="4">
+      <c r="H258" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7625,28 +7673,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="4">
+      <c r="B260" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="4">
+      <c r="C260" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="4">
+      <c r="D260" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="4">
+      <c r="E260" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="4">
+      <c r="F260" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="4">
+      <c r="G260" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="4">
+      <c r="H260" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="4">
+      <c r="I260" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7705,10 +7753,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="4" t="s">
+      <c r="J262" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7752,28 +7800,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="4">
+      <c r="A264" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="4">
+      <c r="C264" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7798,28 +7846,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="4">
+      <c r="B266" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="4">
+      <c r="C266" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="4">
+      <c r="D266" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="4">
+      <c r="E266" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="4">
+      <c r="F266" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="4">
+      <c r="G266" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="4">
+      <c r="H266" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="4">
+      <c r="I266" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7878,10 +7926,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="4" t="s">
+      <c r="J268" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7925,28 +7973,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="4">
+      <c r="A270" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="4">
+      <c r="C270" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7971,28 +8019,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="4">
+      <c r="B272" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="4">
+      <c r="C272" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="4">
+      <c r="D272" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="4">
+      <c r="E272" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="4">
+      <c r="F272" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="4">
+      <c r="G272" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="4">
+      <c r="H272" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="4">
+      <c r="I272" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8080,10 +8128,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="4" t="s">
+      <c r="J275" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8127,28 +8175,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="4">
+      <c r="A277" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="4">
+      <c r="B277" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="4">
+      <c r="C277" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="4">
+      <c r="E277" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="4">
+      <c r="F277" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="4">
+      <c r="G277" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="4">
+      <c r="H277" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8173,28 +8221,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="4">
+      <c r="C279" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="4">
+      <c r="D279" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="4">
+      <c r="E279" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="4">
+      <c r="F279" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="4">
+      <c r="G279" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="4">
+      <c r="H279" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="4">
+      <c r="I279" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8253,10 +8301,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="4" t="s">
+      <c r="J281" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8300,28 +8348,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="4">
+      <c r="A283" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="4">
+      <c r="B283" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="4">
+      <c r="C283" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="4">
+      <c r="E283" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="4">
+      <c r="F283" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="4">
+      <c r="G283" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="4">
+      <c r="H283" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8346,28 +8394,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="4">
+      <c r="B285" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="4">
+      <c r="C285" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="4">
+      <c r="D285" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="4">
+      <c r="E285" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="4">
+      <c r="F285" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="4">
+      <c r="G285" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="4">
+      <c r="H285" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="4">
+      <c r="I285" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8426,10 +8474,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="4" t="s">
+      <c r="J287" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8473,28 +8521,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="4">
+      <c r="A289" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="4">
+      <c r="B289" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="4">
+      <c r="C289" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="4">
+      <c r="E289" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="4">
+      <c r="F289" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="4">
+      <c r="G289" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="4">
+      <c r="H289" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8519,28 +8567,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="4">
+      <c r="B291" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="4">
+      <c r="C291" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="4">
+      <c r="D291" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="4">
+      <c r="E291" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="4">
+      <c r="F291" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="4">
+      <c r="G291" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="4">
+      <c r="H291" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="4">
+      <c r="I291" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8599,10 +8647,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="4" t="s">
+      <c r="J293" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8646,28 +8694,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="4">
+      <c r="A295" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="4">
+      <c r="B295" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="4">
+      <c r="C295" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="4">
+      <c r="E295" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="4">
+      <c r="F295" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="4">
+      <c r="G295" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="4">
+      <c r="H295" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8692,28 +8740,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="4">
+      <c r="B297" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="4">
+      <c r="C297" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="4">
+      <c r="D297" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="4">
+      <c r="E297" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="4">
+      <c r="F297" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="4">
+      <c r="G297" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="4">
+      <c r="H297" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="4">
+      <c r="I297" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8772,10 +8820,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="4" t="s">
+      <c r="J299" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8819,28 +8867,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="4">
+      <c r="A301" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="4">
+      <c r="B301" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="4">
+      <c r="C301" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="4">
+      <c r="E301" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="4">
+      <c r="F301" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="4">
+      <c r="G301" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="4">
+      <c r="H301" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8865,28 +8913,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="4">
+      <c r="B303" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="4">
+      <c r="C303" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="4">
+      <c r="D303" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="4">
+      <c r="E303" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="4">
+      <c r="F303" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="4">
+      <c r="G303" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="4">
+      <c r="H303" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="4">
+      <c r="I303" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8945,10 +8993,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="4" t="s">
+      <c r="J305" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8992,28 +9040,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="4">
+      <c r="A307" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="4">
+      <c r="C307" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="4">
+      <c r="E307" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="4">
+      <c r="F307" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="4">
+      <c r="G307" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="4">
+      <c r="H307" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9038,28 +9086,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="4">
+      <c r="B309" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="4">
+      <c r="C309" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="4">
+      <c r="D309" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="4">
+      <c r="E309" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="4">
+      <c r="F309" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="4">
+      <c r="G309" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="4">
+      <c r="H309" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="4">
+      <c r="I309" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9118,10 +9166,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="4" t="s">
+      <c r="J311" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9165,28 +9213,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="4">
+      <c r="A313" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="4">
+      <c r="C313" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9211,28 +9259,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="4">
+      <c r="B315" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="4">
+      <c r="C315" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="4">
+      <c r="D315" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="4">
+      <c r="E315" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="4">
+      <c r="F315" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="4">
+      <c r="G315" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="4">
+      <c r="H315" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="4">
+      <c r="I315" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9291,10 +9339,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="4" t="s">
+      <c r="J317" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9338,28 +9386,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="4">
+      <c r="A319" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="4">
+      <c r="C319" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="4">
+      <c r="E319" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="4">
+      <c r="F319" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="4">
+      <c r="G319" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="4">
+      <c r="H319" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9384,28 +9432,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="4">
+      <c r="B321" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="4">
+      <c r="C321" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="4">
+      <c r="D321" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="4">
+      <c r="E321" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="4">
+      <c r="F321" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="4">
+      <c r="G321" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="4">
+      <c r="H321" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="4">
+      <c r="I321" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9464,10 +9512,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="4" t="s">
+      <c r="J323" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9511,28 +9559,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="4">
+      <c r="A325" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="4">
+      <c r="B325" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="4">
+      <c r="C325" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="4">
+      <c r="E325" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="4">
+      <c r="F325" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="4">
+      <c r="G325" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="4">
+      <c r="H325" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9557,28 +9605,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="4">
+      <c r="B327" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="4">
+      <c r="C327" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="4">
+      <c r="D327" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="4">
+      <c r="E327" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="4">
+      <c r="F327" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="4">
+      <c r="G327" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="4">
+      <c r="H327" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="4">
+      <c r="I327" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9637,10 +9685,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="4" t="s">
+      <c r="J329" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9684,28 +9732,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="4">
+      <c r="A331" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="4">
+      <c r="B331" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="4">
+      <c r="C331" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="4">
+      <c r="E331" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="4">
+      <c r="F331" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="4">
+      <c r="G331" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="4">
+      <c r="H331" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9730,28 +9778,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="4">
+      <c r="B333" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="4">
+      <c r="C333" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="4">
+      <c r="D333" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="4">
+      <c r="E333" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="4">
+      <c r="F333" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="4">
+      <c r="G333" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="4">
+      <c r="H333" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="4">
+      <c r="I333" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9810,10 +9858,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="4" t="s">
+      <c r="J335" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9857,28 +9905,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="4">
+      <c r="A337" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="4">
+      <c r="B337" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="4">
+      <c r="C337" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="4">
+      <c r="E337" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="4">
+      <c r="F337" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="4">
+      <c r="G337" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="4">
+      <c r="H337" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9903,28 +9951,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="4">
+      <c r="B339" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="4">
+      <c r="C339" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="4">
+      <c r="D339" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="4">
+      <c r="E339" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="4">
+      <c r="F339" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="4">
+      <c r="G339" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="4">
+      <c r="H339" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="4">
+      <c r="I339" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9983,10 +10031,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="4" t="s">
+      <c r="J341" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10560" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13200" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -450,10 +468,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -497,28 +515,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="12">
+      <c r="A11" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="12">
+      <c r="C11" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -543,28 +561,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="12">
+      <c r="B13" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="12">
+      <c r="D13" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="12">
+      <c r="F13" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="12">
+      <c r="H13" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="12">
+      <c r="I13" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -710,10 +728,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="12" t="s">
+      <c r="J18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -757,28 +775,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="12">
+      <c r="A20" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="12">
+      <c r="C20" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -803,28 +821,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="12">
+      <c r="B22" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="12">
+      <c r="C22" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="D22" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="E22" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="12">
+      <c r="F22" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="12">
+      <c r="G22" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="12">
+      <c r="H22" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="12">
+      <c r="I22" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -941,10 +959,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="12" t="s">
+      <c r="J26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -988,28 +1006,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="12">
+      <c r="A28" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="12">
+      <c r="C28" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1034,28 +1052,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="12">
+      <c r="C30" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="12">
+      <c r="D30" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="12">
+      <c r="F30" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="12">
+      <c r="I30" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1201,10 +1219,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="12" t="s">
+      <c r="J35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1248,28 +1266,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="12">
+      <c r="A37" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="12">
+      <c r="B37" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="12">
+      <c r="C37" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="12">
+      <c r="F37" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="12">
+      <c r="G37" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="12">
+      <c r="H37" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1294,28 +1312,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="12">
+      <c r="B39" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="12">
+      <c r="C39" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="12">
+      <c r="D39" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="12">
+      <c r="E39" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="12">
+      <c r="F39" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="12">
+      <c r="G39" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="12">
+      <c r="H39" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="12">
+      <c r="I39" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1461,10 +1479,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="12" t="s">
+      <c r="J44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1508,28 +1526,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="12">
+      <c r="A46" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="12">
+      <c r="C46" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1554,28 +1572,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="12">
+      <c r="C48" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="12">
+      <c r="D48" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E48" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F48" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="12">
+      <c r="I48" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1692,10 +1710,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="12" t="s">
+      <c r="J52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1739,28 +1757,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="12">
+      <c r="A54" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="12">
+      <c r="C54" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E54" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F54" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="12">
+      <c r="G54" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1785,28 +1803,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="12">
+      <c r="C56" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="12">
+      <c r="D56" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="12">
+      <c r="I56" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1894,10 +1912,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="12" t="s">
+      <c r="J59" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1941,28 +1959,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="12">
+      <c r="A61" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="12">
+      <c r="C61" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1987,28 +2005,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="12">
+      <c r="I63" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2183,10 +2201,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="12" t="s">
+      <c r="J69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2230,28 +2248,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="12">
+      <c r="A71" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="12">
+      <c r="C71" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2276,28 +2294,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="12">
+      <c r="C73" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D73" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="12">
+      <c r="I73" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2414,10 +2432,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="12" t="s">
+      <c r="J77" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2461,28 +2479,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="12">
+      <c r="A79" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="12">
+      <c r="C79" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="12">
+      <c r="E79" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="12">
+      <c r="F79" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="12">
+      <c r="G79" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="12">
+      <c r="H79" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2507,28 +2525,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="12">
+      <c r="C81" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="12">
+      <c r="D81" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="12">
+      <c r="F81" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="12">
+      <c r="G81" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="12">
+      <c r="I81" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2616,10 +2634,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="12" t="s">
+      <c r="J84" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2663,28 +2681,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="12">
+      <c r="A86" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="12">
+      <c r="C86" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2709,28 +2727,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="12">
+      <c r="C88" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="12">
+      <c r="D88" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="12">
+      <c r="I88" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2905,10 +2923,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="12" t="s">
+      <c r="J94" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2952,28 +2970,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="12">
+      <c r="A96" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="12">
+      <c r="C96" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2998,28 +3016,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="12">
+      <c r="I98" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3165,10 +3183,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="12" t="s">
+      <c r="J103" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3212,28 +3230,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="12">
+      <c r="A105" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="12">
+      <c r="B105" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="12">
+      <c r="C105" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="12">
+      <c r="E105" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="12">
+      <c r="F105" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="12">
+      <c r="G105" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="12">
+      <c r="H105" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3258,28 +3276,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="12">
+      <c r="C107" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="12">
+      <c r="D107" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="12">
+      <c r="I107" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3425,10 +3443,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="12" t="s">
+      <c r="J112" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3472,28 +3490,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="12">
+      <c r="A114" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="12">
+      <c r="B114" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="12">
+      <c r="C114" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="12">
+      <c r="E114" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="12">
+      <c r="F114" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="12">
+      <c r="G114" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="12">
+      <c r="H114" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3518,28 +3536,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="12">
+      <c r="C116" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="12">
+      <c r="D116" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="12">
+      <c r="I116" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3627,10 +3645,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="12" t="s">
+      <c r="J119" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3674,28 +3692,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="12">
+      <c r="A121" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="12">
+      <c r="C121" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3720,28 +3738,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="12">
+      <c r="B123" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="12">
+      <c r="C123" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="12">
+      <c r="D123" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="12">
+      <c r="F123" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="12">
+      <c r="H123" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="12">
+      <c r="I123" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3916,10 +3934,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="12" t="s">
+      <c r="J129" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3963,28 +3981,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="12">
+      <c r="A131" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="12">
+      <c r="B131" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="12">
+      <c r="C131" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="12">
+      <c r="E131" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="12">
+      <c r="F131" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="12">
+      <c r="G131" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="12">
+      <c r="H131" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4009,28 +4027,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="12">
+      <c r="B133" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="12">
+      <c r="C133" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="12">
+      <c r="D133" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="12">
+      <c r="E133" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="12">
+      <c r="F133" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="12">
+      <c r="G133" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="12">
+      <c r="H133" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="12">
+      <c r="I133" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4089,10 +4107,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="12" t="s">
+      <c r="J135" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4136,28 +4154,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="12">
+      <c r="A137" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="12">
+      <c r="B137" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="12">
+      <c r="C137" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="12">
+      <c r="E137" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="12">
+      <c r="F137" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="12">
+      <c r="G137" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="12">
+      <c r="H137" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4182,28 +4200,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="12">
+      <c r="B139" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="12">
+      <c r="C139" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="12">
+      <c r="D139" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="12">
+      <c r="E139" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="12">
+      <c r="F139" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="12">
+      <c r="G139" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="12">
+      <c r="H139" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="12">
+      <c r="I139" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4320,10 +4338,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="12" t="s">
+      <c r="J143" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4367,28 +4385,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="12">
+      <c r="A145" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="12">
+      <c r="B145" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="12">
+      <c r="C145" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="12">
+      <c r="E145" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="12">
+      <c r="F145" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="12">
+      <c r="G145" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="12">
+      <c r="H145" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4413,28 +4431,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="12">
+      <c r="B147" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="12">
+      <c r="C147" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="12">
+      <c r="D147" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="12">
+      <c r="E147" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="12">
+      <c r="F147" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="12">
+      <c r="G147" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="12">
+      <c r="H147" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="12">
+      <c r="I147" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4551,10 +4569,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="12" t="s">
+      <c r="J151" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4598,28 +4616,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="12">
+      <c r="A153" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="12">
+      <c r="C153" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="12">
+      <c r="E153" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="12">
+      <c r="F153" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="12">
+      <c r="G153" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="12">
+      <c r="H153" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4644,28 +4662,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="12">
+      <c r="C155" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="12">
+      <c r="D155" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="12">
+      <c r="I155" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4753,10 +4771,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="12" t="s">
+      <c r="J158" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4800,28 +4818,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="12">
+      <c r="A160" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="12">
+      <c r="C160" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4846,28 +4864,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="12">
+      <c r="C162" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="12">
+      <c r="D162" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="12">
+      <c r="I162" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4984,10 +5002,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="12" t="s">
+      <c r="J166" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -5031,28 +5049,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="12">
+      <c r="A168" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="12">
+      <c r="C168" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5077,28 +5095,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="12">
+      <c r="I170" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5157,10 +5175,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="12" t="s">
+      <c r="J172" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5204,28 +5222,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="12">
+      <c r="A174" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="12">
+      <c r="C174" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5250,28 +5268,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="12">
+      <c r="C176" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="12">
+      <c r="D176" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="12">
+      <c r="I176" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5359,10 +5377,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="12" t="s">
+      <c r="J179" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5406,28 +5424,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="12">
+      <c r="A181" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="12">
+      <c r="B181" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="12">
+      <c r="C181" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="12">
+      <c r="E181" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="12">
+      <c r="F181" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="12">
+      <c r="G181" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="12">
+      <c r="H181" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5452,28 +5470,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="12">
+      <c r="C183" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="12">
+      <c r="D183" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="12">
+      <c r="I183" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5532,10 +5550,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="12" t="s">
+      <c r="J185" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5579,28 +5597,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="12">
+      <c r="A187" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="12">
+      <c r="B187" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="12">
+      <c r="C187" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="12">
+      <c r="E187" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="12">
+      <c r="F187" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="12">
+      <c r="G187" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="12">
+      <c r="H187" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5625,28 +5643,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="12">
+      <c r="B189" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="12">
+      <c r="C189" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="12">
+      <c r="D189" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="12">
+      <c r="E189" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="12">
+      <c r="F189" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="12">
+      <c r="G189" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="12">
+      <c r="H189" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="12">
+      <c r="I189" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5734,10 +5752,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="12" t="s">
+      <c r="J192" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5781,28 +5799,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="12">
+      <c r="A194" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="12">
+      <c r="B194" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="12">
+      <c r="C194" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="12">
+      <c r="E194" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="12">
+      <c r="F194" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="12">
+      <c r="G194" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="12">
+      <c r="H194" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5827,28 +5845,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="12">
+      <c r="B196" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="12">
+      <c r="C196" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="12">
+      <c r="D196" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="12">
+      <c r="E196" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="12">
+      <c r="F196" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="12">
+      <c r="G196" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="12">
+      <c r="H196" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="12">
+      <c r="I196" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5907,10 +5925,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="12" t="s">
+      <c r="J198" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5954,28 +5972,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="12">
+      <c r="A200" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="12">
+      <c r="B200" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="12">
+      <c r="C200" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="12">
+      <c r="E200" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="12">
+      <c r="F200" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="12">
+      <c r="G200" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="12">
+      <c r="H200" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6000,28 +6018,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="12">
+      <c r="B202" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="12">
+      <c r="C202" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="12">
+      <c r="D202" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="12">
+      <c r="E202" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="12">
+      <c r="F202" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="12">
+      <c r="G202" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="12">
+      <c r="H202" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="12">
+      <c r="I202" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6109,10 +6127,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="12" t="s">
+      <c r="J205" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6156,28 +6174,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="12">
+      <c r="A207" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="12">
+      <c r="B207" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="12">
+      <c r="C207" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="12">
+      <c r="E207" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="12">
+      <c r="F207" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="12">
+      <c r="G207" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="12">
+      <c r="H207" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6202,28 +6220,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="12">
+      <c r="B209" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="12">
+      <c r="C209" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="12">
+      <c r="D209" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="12">
+      <c r="E209" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="12">
+      <c r="F209" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="12">
+      <c r="G209" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="12">
+      <c r="H209" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="12">
+      <c r="I209" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6311,10 +6329,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="12" t="s">
+      <c r="J212" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6358,28 +6376,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="12">
+      <c r="A214" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="12">
+      <c r="C214" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="12">
+      <c r="E214" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="12">
+      <c r="F214" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="12">
+      <c r="G214" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="12">
+      <c r="H214" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6404,28 +6422,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="12">
+      <c r="B216" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="12">
+      <c r="C216" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="12">
+      <c r="D216" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="12">
+      <c r="E216" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="12">
+      <c r="F216" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="12">
+      <c r="G216" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="12">
+      <c r="H216" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="12">
+      <c r="I216" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6484,10 +6502,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="12" t="s">
+      <c r="J218" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6531,28 +6549,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="12">
+      <c r="A220" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="12">
+      <c r="B220" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="12">
+      <c r="C220" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="12">
+      <c r="E220" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="12">
+      <c r="F220" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="12">
+      <c r="G220" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="12">
+      <c r="H220" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6577,28 +6595,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="12">
+      <c r="B222" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="12">
+      <c r="C222" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="12">
+      <c r="D222" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="12">
+      <c r="E222" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="12">
+      <c r="F222" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="12">
+      <c r="G222" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="12">
+      <c r="H222" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="12">
+      <c r="I222" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6657,10 +6675,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="12" t="s">
+      <c r="J224" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6704,28 +6722,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="12">
+      <c r="A226" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="12">
+      <c r="B226" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="12">
+      <c r="C226" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="12">
+      <c r="E226" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="12">
+      <c r="F226" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="12">
+      <c r="G226" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="12">
+      <c r="H226" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6750,28 +6768,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="12">
+      <c r="C228" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="12">
+      <c r="D228" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="12">
+      <c r="E228" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="12">
+      <c r="F228" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="12">
+      <c r="G228" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="12">
+      <c r="H228" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="12">
+      <c r="I228" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6859,10 +6877,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="12" t="s">
+      <c r="J231" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6906,28 +6924,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="12">
+      <c r="A233" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="12">
+      <c r="B233" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="12">
+      <c r="C233" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="12">
+      <c r="E233" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="12">
+      <c r="F233" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="12">
+      <c r="G233" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="12">
+      <c r="H233" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6952,28 +6970,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="12">
+      <c r="C235" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="12">
+      <c r="D235" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="12">
+      <c r="E235" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="12">
+      <c r="F235" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="12">
+      <c r="G235" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="12">
+      <c r="H235" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="12">
+      <c r="I235" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7032,10 +7050,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="12" t="s">
+      <c r="J237" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7079,28 +7097,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="12">
+      <c r="A239" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="12">
+      <c r="C239" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="12">
+      <c r="E239" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="12">
+      <c r="F239" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="12">
+      <c r="G239" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="12">
+      <c r="H239" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7125,28 +7143,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="12">
+      <c r="B241" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="12">
+      <c r="C241" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="12">
+      <c r="D241" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="12">
+      <c r="E241" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="12">
+      <c r="F241" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="12">
+      <c r="G241" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="12">
+      <c r="H241" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="12">
+      <c r="I241" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7205,10 +7223,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="12" t="s">
+      <c r="J243" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7252,28 +7270,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="12">
+      <c r="A245" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="12">
+      <c r="B245" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="12">
+      <c r="C245" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="12">
+      <c r="E245" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="12">
+      <c r="F245" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="12">
+      <c r="G245" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="12">
+      <c r="H245" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7298,28 +7316,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="12">
+      <c r="B247" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="12">
+      <c r="C247" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="12">
+      <c r="D247" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="12">
+      <c r="E247" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="12">
+      <c r="F247" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="12">
+      <c r="G247" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="12">
+      <c r="H247" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="12">
+      <c r="I247" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7407,10 +7425,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="12" t="s">
+      <c r="J250" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7454,28 +7472,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="12">
+      <c r="A252" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="12">
+      <c r="B252" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="12">
+      <c r="C252" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="12">
+      <c r="E252" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="12">
+      <c r="F252" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="12">
+      <c r="G252" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="12">
+      <c r="H252" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7500,28 +7518,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="12">
+      <c r="B254" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="12">
+      <c r="C254" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="12">
+      <c r="D254" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="12">
+      <c r="E254" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="12">
+      <c r="F254" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="12">
+      <c r="G254" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="12">
+      <c r="H254" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="12">
+      <c r="I254" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7580,10 +7598,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="12" t="s">
+      <c r="J256" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7627,28 +7645,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="12">
+      <c r="A258" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="12">
+      <c r="B258" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="12">
+      <c r="C258" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="12">
+      <c r="E258" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="12">
+      <c r="F258" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="12">
+      <c r="G258" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="12">
+      <c r="H258" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7673,28 +7691,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="12">
+      <c r="B260" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="12">
+      <c r="C260" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="12">
+      <c r="D260" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="12">
+      <c r="E260" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="12">
+      <c r="F260" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="12">
+      <c r="G260" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="12">
+      <c r="H260" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="12">
+      <c r="I260" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7753,10 +7771,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="12" t="s">
+      <c r="J262" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7800,28 +7818,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="12">
+      <c r="A264" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="12">
+      <c r="C264" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7846,28 +7864,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="12">
+      <c r="B266" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="12">
+      <c r="C266" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="12">
+      <c r="D266" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="12">
+      <c r="E266" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="12">
+      <c r="F266" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="12">
+      <c r="G266" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="12">
+      <c r="H266" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="12">
+      <c r="I266" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7926,10 +7944,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="12" t="s">
+      <c r="J268" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7973,28 +7991,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="12">
+      <c r="A270" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="12">
+      <c r="C270" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8019,28 +8037,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="12">
+      <c r="B272" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="12">
+      <c r="C272" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="12">
+      <c r="D272" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="12">
+      <c r="E272" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="12">
+      <c r="F272" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="12">
+      <c r="G272" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="12">
+      <c r="H272" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="12">
+      <c r="I272" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8128,10 +8146,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="12" t="s">
+      <c r="J275" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8175,28 +8193,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="12">
+      <c r="A277" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="12">
+      <c r="B277" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="12">
+      <c r="C277" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="12">
+      <c r="E277" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="12">
+      <c r="F277" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="12">
+      <c r="G277" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="12">
+      <c r="H277" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8221,28 +8239,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="12">
+      <c r="B279" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="12">
+      <c r="C279" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="12">
+      <c r="D279" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="12">
+      <c r="E279" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="12">
+      <c r="F279" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="12">
+      <c r="G279" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="12">
+      <c r="H279" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="12">
+      <c r="I279" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8301,10 +8319,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="12" t="s">
+      <c r="J281" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8348,28 +8366,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="12">
+      <c r="A283" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="12">
+      <c r="B283" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="12">
+      <c r="C283" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="12">
+      <c r="E283" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="12">
+      <c r="F283" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="12">
+      <c r="G283" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="12">
+      <c r="H283" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8394,28 +8412,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="12">
+      <c r="B285" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="12">
+      <c r="C285" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="12">
+      <c r="D285" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="12">
+      <c r="E285" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="12">
+      <c r="F285" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="12">
+      <c r="G285" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="12">
+      <c r="H285" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="12">
+      <c r="I285" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8474,10 +8492,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="12" t="s">
+      <c r="J287" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8521,28 +8539,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="12">
+      <c r="A289" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="12">
+      <c r="C289" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="12">
+      <c r="E289" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="12">
+      <c r="F289" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="12">
+      <c r="G289" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="12">
+      <c r="H289" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8567,28 +8585,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="12">
+      <c r="B291" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="12">
+      <c r="C291" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="12">
+      <c r="D291" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="12">
+      <c r="E291" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="12">
+      <c r="F291" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="12">
+      <c r="G291" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="12">
+      <c r="H291" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="12">
+      <c r="I291" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8647,10 +8665,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="12" t="s">
+      <c r="J293" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8694,28 +8712,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="12">
+      <c r="A295" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="12">
+      <c r="B295" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="12">
+      <c r="C295" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="12">
+      <c r="E295" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="12">
+      <c r="F295" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="12">
+      <c r="G295" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="12">
+      <c r="H295" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8740,28 +8758,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="12">
+      <c r="B297" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="12">
+      <c r="C297" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="12">
+      <c r="D297" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="12">
+      <c r="E297" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="12">
+      <c r="F297" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="12">
+      <c r="G297" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="12">
+      <c r="H297" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="12">
+      <c r="I297" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8820,10 +8838,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="12" t="s">
+      <c r="J299" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8867,28 +8885,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="12">
+      <c r="A301" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="12">
+      <c r="B301" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="12">
+      <c r="C301" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="12">
+      <c r="E301" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="12">
+      <c r="F301" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="12">
+      <c r="G301" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="12">
+      <c r="H301" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8913,28 +8931,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="12">
+      <c r="B303" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="12">
+      <c r="C303" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="12">
+      <c r="D303" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="12">
+      <c r="E303" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="12">
+      <c r="F303" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="12">
+      <c r="G303" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="12">
+      <c r="H303" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="12">
+      <c r="I303" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8993,10 +9011,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="12" t="s">
+      <c r="J305" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -9040,28 +9058,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="12">
+      <c r="A307" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="12">
+      <c r="C307" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="12">
+      <c r="E307" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="12">
+      <c r="F307" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="12">
+      <c r="G307" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="12">
+      <c r="H307" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9086,28 +9104,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="12">
+      <c r="B309" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="12">
+      <c r="C309" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="12">
+      <c r="D309" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="12">
+      <c r="E309" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="12">
+      <c r="F309" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="12">
+      <c r="G309" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="12">
+      <c r="H309" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="12">
+      <c r="I309" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9166,10 +9184,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="12" t="s">
+      <c r="J311" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9213,28 +9231,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="12">
+      <c r="A313" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="12">
+      <c r="C313" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9259,28 +9277,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="12">
+      <c r="B315" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="12">
+      <c r="C315" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="12">
+      <c r="D315" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="12">
+      <c r="E315" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="12">
+      <c r="F315" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="12">
+      <c r="G315" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="12">
+      <c r="H315" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="12">
+      <c r="I315" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9339,10 +9357,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="12" t="s">
+      <c r="J317" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9386,28 +9404,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="12">
+      <c r="A319" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="12">
+      <c r="C319" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="12">
+      <c r="E319" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="12">
+      <c r="F319" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="12">
+      <c r="G319" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="12">
+      <c r="H319" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9432,28 +9450,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="12">
+      <c r="B321" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="12">
+      <c r="C321" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="12">
+      <c r="D321" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="12">
+      <c r="E321" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="12">
+      <c r="F321" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="12">
+      <c r="G321" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="12">
+      <c r="H321" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="12">
+      <c r="I321" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9512,10 +9530,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="12" t="s">
+      <c r="J323" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9559,28 +9577,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="12">
+      <c r="A325" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="12">
+      <c r="B325" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="12">
+      <c r="C325" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="12">
+      <c r="E325" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="12">
+      <c r="F325" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="12">
+      <c r="G325" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="12">
+      <c r="H325" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9605,28 +9623,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="12">
+      <c r="B327" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="12">
+      <c r="C327" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="12">
+      <c r="D327" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="12">
+      <c r="E327" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="12">
+      <c r="F327" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="12">
+      <c r="G327" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="12">
+      <c r="H327" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="12">
+      <c r="I327" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9685,10 +9703,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="12" t="s">
+      <c r="J329" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9732,28 +9750,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="12">
+      <c r="A331" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="12">
+      <c r="B331" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="12">
+      <c r="C331" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="12">
+      <c r="E331" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="12">
+      <c r="F331" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="12">
+      <c r="G331" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="12">
+      <c r="H331" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9778,28 +9796,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="12">
+      <c r="B333" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="12">
+      <c r="C333" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="12">
+      <c r="D333" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="12">
+      <c r="E333" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="12">
+      <c r="F333" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="12">
+      <c r="G333" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="12">
+      <c r="H333" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="12">
+      <c r="I333" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9858,10 +9876,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="12" t="s">
+      <c r="J335" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9905,28 +9923,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="12">
+      <c r="A337" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="12">
+      <c r="B337" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="12">
+      <c r="C337" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="12">
+      <c r="E337" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="12">
+      <c r="F337" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="12">
+      <c r="G337" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="12">
+      <c r="H337" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9951,28 +9969,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="12">
+      <c r="B339" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="12">
+      <c r="C339" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="12">
+      <c r="D339" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="12">
+      <c r="E339" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="12">
+      <c r="F339" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="12">
+      <c r="G339" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="12">
+      <c r="H339" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="12">
+      <c r="I339" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10031,10 +10049,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="12" t="s">
+      <c r="J341" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
